--- a/기록용/t.xlsx
+++ b/기록용/t.xlsx
@@ -55,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -482,10 +483,8 @@
           <t>20201113</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>30 days, 0:00:00</t>
-        </is>
+      <c r="M2" s="2" t="n">
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>3.61</v>
@@ -495,6 +494,20 @@
           <t>63200</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="S2" t="n">
+        <v>66700</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -545,10 +558,8 @@
           <t>20201116</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>33 days, 0:00:00</t>
-        </is>
+      <c r="M3" s="2" t="n">
+        <v>33</v>
       </c>
       <c r="N3" t="n">
         <v>11.48</v>
@@ -558,14 +569,20 @@
           <t>98100</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>33</v>
       </c>
       <c r="R3" t="n">
         <v>11.48</v>
       </c>
+      <c r="S3" t="n">
+        <v>98100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -613,21 +630,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>20201215</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>62 days, 0:00:00</t>
-        </is>
+          <t>20201230</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>77</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>20600</t>
-        </is>
+          <t>21000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>20210106</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" t="n">
+        <v>22000</v>
       </c>
     </row>
     <row r="5">
@@ -676,29 +705,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>20201216</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>63 days, 0:00:00</t>
-        </is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>83</v>
       </c>
       <c r="N5" t="n">
-        <v>18.88</v>
+        <v>26.22</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>170000</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>180500</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>20210105</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>83</v>
       </c>
       <c r="R5" t="n">
-        <v>18.88</v>
+        <v>26.22</v>
+      </c>
+      <c r="S5" t="n">
+        <v>180500</v>
       </c>
     </row>
     <row r="6">
@@ -747,19 +780,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20201216</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>63 days, 0:00:00</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>170000</t>
-        </is>
-      </c>
+          <t>20201014</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -810,10 +835,8 @@
           <t>20201113</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>31 days, 0:00:00</t>
-        </is>
+      <c r="M7" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="N7" t="n">
         <v>3.61</v>
@@ -823,6 +846,20 @@
           <t>63200</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>20201116</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="S7" t="n">
+        <v>66700</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -870,12 +907,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20201113</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>31 days, 0:00:00</t>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -883,9 +920,10 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>63200</t>
-        </is>
-      </c>
+          <t>89000</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -936,10 +974,8 @@
           <t>20201113</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>31 days, 0:00:00</t>
-        </is>
+      <c r="M9" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="N9" t="n">
         <v>9.81</v>
@@ -949,14 +985,20 @@
           <t>58200</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="R9" t="n">
         <v>9.81</v>
       </c>
+      <c r="S9" t="n">
+        <v>58200</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1004,21 +1046,33 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>20201117</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>35 days, 0:00:00</t>
-        </is>
+          <t>20201113</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>31</v>
       </c>
       <c r="N10" t="n">
-        <v>7.09</v>
+        <v>5.67</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>83100</t>
-        </is>
+          <t>82000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>20201209</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>84700</v>
       </c>
     </row>
     <row r="11">
@@ -1067,21 +1121,33 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>20201119</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>37 days, 0:00:00</t>
-        </is>
+          <t>20201209</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>57</v>
       </c>
       <c r="N11" t="n">
-        <v>4.32</v>
+        <v>12.73</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>229500</t>
-        </is>
+          <t>248000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>20201209</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="S11" t="n">
+        <v>248000</v>
       </c>
     </row>
     <row r="12">
@@ -1130,34 +1196,33 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>20201119</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>37 days, 0:00:00</t>
-        </is>
+          <t>20201209</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>57</v>
       </c>
       <c r="N12" t="n">
-        <v>8.359999999999999</v>
+        <v>25.07</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>188000</t>
+          <t>217000</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>20201120</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>38 days, 0:00:00</t>
-        </is>
+          <t>20201209</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>25.07</v>
       </c>
       <c r="S12" t="n">
-        <v>197000</v>
+        <v>217000</v>
       </c>
     </row>
     <row r="13">
@@ -1209,10 +1274,8 @@
           <t>20210112</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>91 days, 0:00:00</t>
-        </is>
+      <c r="M13" s="2" t="n">
+        <v>91</v>
       </c>
       <c r="N13" t="n">
         <v>3.03</v>
@@ -1222,19 +1285,7 @@
           <t>37400</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>20201120</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>38 days, 0:00:00</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>197000</v>
-      </c>
+      <c r="Q13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1282,37 +1333,33 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>20210114</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>93 days, 0:00:00</t>
-        </is>
+          <t>20201023</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>58.27</v>
+        <v>3.36</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>21550</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>20201120</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>38 days, 0:00:00</t>
-        </is>
+          <t>20201110</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>28</v>
       </c>
       <c r="R14" t="n">
-        <v>58.27</v>
+        <v>29.26</v>
       </c>
       <c r="S14" t="n">
-        <v>197000</v>
+        <v>26950</v>
       </c>
     </row>
     <row r="15">
@@ -1361,32 +1408,16 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>20210114</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>93 days, 0:00:00</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>33000</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>20201120</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>38 days, 0:00:00</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>197000</v>
-      </c>
+          <t>20201013</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1460,7 +1491,6 @@
           <t>38 days, 0:00:00</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
         <v>197000</v>
       </c>
